--- a/documentation/Product_Sprint_Backlog_Hashi_TeamSG.xlsx
+++ b/documentation/Product_Sprint_Backlog_Hashi_TeamSG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25980" windowHeight="9525" tabRatio="755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25980" windowHeight="9525" tabRatio="755" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="UserStories" sheetId="6" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="88">
   <si>
     <t>StoryID</t>
   </si>
@@ -261,29 +261,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Spiel laden</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Neues Spiel aus Datei (XML) laden.
-Datei beinhaltet das Spiel sowie die Lösung des Spiels.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Anzeigen der möglichen Brücken</t>
     </r>
     <r>
@@ -492,6 +469,38 @@
         <scheme val="minor"/>
       </rPr>
       <t>1: low, 5: high</t>
+    </r>
+  </si>
+  <si>
+    <t>Hashi: Sprint Backlog Woche 05</t>
+  </si>
+  <si>
+    <t>Hashi: Sprint Backlog Woche 06</t>
+  </si>
+  <si>
+    <t>Hashi: Sprint Backlog Woche 07</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Spiel laden</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Neues Spiel aus Datei (XML/JSON) laden.
+Datei beinhaltet das Spiel sowie die Lösung des Spiels.</t>
     </r>
   </si>
 </sst>
@@ -781,6 +790,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -792,15 +810,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1135,7 +1144,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1147,20 +1156,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
+      <c r="A2" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" s="8"/>
@@ -1190,7 +1199,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="16">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -1198,13 +1207,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="C6" s="16">
         <v>5</v>
       </c>
       <c r="D6" s="16">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="90" x14ac:dyDescent="0.25">
@@ -1212,13 +1221,13 @@
         <v>3</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C7" s="16">
         <v>4</v>
       </c>
       <c r="D7" s="16">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="90" x14ac:dyDescent="0.25">
@@ -1226,13 +1235,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C8" s="16">
         <v>5</v>
       </c>
       <c r="D8" s="16">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -1240,13 +1249,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C9" s="18">
         <v>3</v>
       </c>
       <c r="D9" s="18">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -1254,13 +1263,13 @@
         <v>6</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C10" s="18">
         <v>3</v>
       </c>
       <c r="D10" s="18">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -1268,13 +1277,13 @@
         <v>7</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C11" s="16">
         <v>2</v>
       </c>
       <c r="D11" s="16">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -1282,13 +1291,13 @@
         <v>8</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C12" s="16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" s="16">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="105" x14ac:dyDescent="0.25">
@@ -1296,13 +1305,13 @@
         <v>9</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C13" s="16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" s="16">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -1310,13 +1319,13 @@
         <v>10</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C14" s="18">
+        <v>1</v>
+      </c>
+      <c r="D14" s="18">
         <v>2</v>
-      </c>
-      <c r="D14" s="18">
-        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -1327,10 +1336,10 @@
         <v>41</v>
       </c>
       <c r="C15" s="18">
+        <v>1</v>
+      </c>
+      <c r="D15" s="18">
         <v>2</v>
-      </c>
-      <c r="D15" s="18">
-        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1338,12 +1347,14 @@
         <v>12</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C16" s="18">
         <v>5</v>
       </c>
-      <c r="D16" s="18"/>
+      <c r="D16" s="18">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1351,7 +1362,7 @@
     <mergeCell ref="A2:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1360,7 +1371,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1456,16 +1467,16 @@
   </sheetPr>
   <dimension ref="A1:XFD34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J38" sqref="J38"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="47.42578125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="80.5703125" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" style="6" customWidth="1"/>
     <col min="6" max="7" width="8.5703125" style="6" customWidth="1"/>
@@ -1475,51 +1486,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
+      <c r="A2" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
     </row>
     <row r="4" spans="1:9" s="7" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="F4" s="35" t="s">
+      <c r="E4" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="35" t="s">
+      <c r="G4" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="37" t="s">
+      <c r="H4" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="37" t="s">
+      <c r="I4" s="33" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1821,7 +1832,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D15" s="23" t="s">
         <v>21</v>
@@ -18544,7 +18555,7 @@
         <v>23</v>
       </c>
       <c r="C27" s="29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D27" s="23" t="s">
         <v>21</v>
@@ -18573,7 +18584,7 @@
         <v>24</v>
       </c>
       <c r="C28" s="29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D28" s="23" t="s">
         <v>33</v>
@@ -18631,7 +18642,7 @@
         <v>26</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D30" s="23" t="s">
         <v>21</v>
@@ -18747,7 +18758,7 @@
         <v>30</v>
       </c>
       <c r="C34" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D34" s="23" t="s">
         <v>27</v>
@@ -18785,7 +18796,7 @@
       <formula>NOT(ISERROR(SEARCH("erledigt",G5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="3">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D34">
       <formula1>ScrumCategory</formula1>
     </dataValidation>
@@ -18797,7 +18808,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="84" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="74" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -18819,38 +18830,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
+      <c r="A2" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="33"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
+      <c r="A3" s="36"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -19010,38 +19021,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
+      <c r="A2" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="33"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
+      <c r="A3" s="36"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -19136,7 +19147,7 @@
         <v>24</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D11" s="23" t="s">
         <v>33</v>
@@ -19170,7 +19181,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A11" sqref="A11:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19183,38 +19194,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
+      <c r="A2" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="33"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
+      <c r="A3" s="36"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -19292,7 +19303,7 @@
         <v>24</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D10" s="23" t="s">
         <v>33</v>
@@ -19357,44 +19368,44 @@
   <cols>
     <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.42578125" customWidth="1"/>
-    <col min="3" max="3" width="63.28515625" customWidth="1"/>
+    <col min="3" max="3" width="80.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
+      <c r="A2" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="33"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
+      <c r="A3" s="36"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -19489,7 +19500,7 @@
         <v>24</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D11" s="23" t="s">
         <v>33</v>
@@ -19544,7 +19555,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19557,38 +19568,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
+      <c r="A1" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
+      <c r="A2" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="33"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
+      <c r="A3" s="36"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -19649,7 +19660,7 @@
         <v>11</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>21</v>
@@ -19666,7 +19677,7 @@
         <v>24</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D10" s="23" t="s">
         <v>33</v>
@@ -19712,51 +19723,51 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD19"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.42578125" customWidth="1"/>
-    <col min="3" max="3" width="63.28515625" customWidth="1"/>
+    <col min="3" max="3" width="61.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
+      <c r="A1" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
+      <c r="A2" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="33"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
+      <c r="A3" s="36"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
+      <c r="A4" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -19817,7 +19828,7 @@
         <v>11</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>21</v>
@@ -19953,7 +19964,7 @@
         <v>23</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D17" s="23" t="s">
         <v>21</v>
@@ -19987,7 +19998,7 @@
         <v>30</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D19" s="23" t="s">
         <v>27</v>
@@ -20021,7 +20032,7 @@
         <v>24</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D21" s="23" t="s">
         <v>33</v>
@@ -20062,8 +20073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20076,38 +20087,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
+      <c r="A1" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
+      <c r="A2" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="33"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
+      <c r="A3" s="36"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -20151,7 +20162,7 @@
         <v>30</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>27</v>
@@ -20287,7 +20298,7 @@
         <v>26</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D16" s="23" t="s">
         <v>21</v>
@@ -20304,7 +20315,7 @@
         <v>24</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D17" s="23" t="s">
         <v>33</v>
